--- a/MEDIA/_ 1102 _301_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 1102 _301_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 1102 _301_2020-10-09~2020-10-09)</t>
+          <t>森邦(股)會計科目餘額明細(_ 1102 _301_2020-11-20~2020-11-20)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>29264796</v>
+        <v>37671439</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201120</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -437,38 +437,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>竹北福興                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>匯愛貝斯-期中款-支付06-0944邱柏敏費用申請     </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22598</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-65940</v>
       </c>
       <c r="G4" t="n">
-        <v>29287394</v>
+        <v>37605499</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109840</t>
+          <t>111584</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1000716</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201120</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>楊梅校前	                                   </t>
+          <t>東勢東崎                                    </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -487,29 +487,29 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>67557</v>
+        <v>38046</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>29354951</v>
+        <v>37643545</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>111769</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1000939</t>
+          <t>1000111</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201120</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,21 +524,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>暫收-楊梅校前-謝承宏 工程款18萬            </t>
+          <t>退訂-共7筆                        </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-3500</v>
       </c>
       <c r="G6" t="n">
-        <v>29534951</v>
+        <v>37640045</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>109882</t>
+          <t>111637</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201120</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -560,38 +560,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汐止工建	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>匯謝明融-預付11-0129-109年五月天活動攤位+保證金</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8729</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-78000</v>
       </c>
       <c r="G7" t="n">
-        <v>29543680</v>
+        <v>37562045</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>111704</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1000777</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201120</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -601,38 +601,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>彰化旭光	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1776許仁傑費用申請              </t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>38564</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-4530</v>
       </c>
       <c r="G8" t="n">
-        <v>29582244</v>
+        <v>37557515</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>111607</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1000947</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201120</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -642,38 +642,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>沙鹿北勢東	                                  </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1786黃凱祺費用申請              </t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>12757</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-7548</v>
       </c>
       <c r="G9" t="n">
-        <v>29595001</v>
+        <v>37549967</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>111607</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1000835</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201120</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,38 +683,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>神岡豐洲	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1777任宇晨費用申請              </t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27342</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-629</v>
       </c>
       <c r="G10" t="n">
-        <v>29622343</v>
+        <v>37549338</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>111607</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1000922</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201120</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,38 +724,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>龍井竹坑                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1781黃隆玄費用申請              </t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23511</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1514</v>
       </c>
       <c r="G11" t="n">
-        <v>29645854</v>
+        <v>37547824</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>111607</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1000515</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201120</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,38 +765,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>梧棲中興	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1782黃追億費用申請              </t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>13519</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-2690</v>
       </c>
       <c r="G12" t="n">
-        <v>29659373</v>
+        <v>37545134</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>111607</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1000898</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201120</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,38 +806,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>北市南京松江	                                 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1779黃俊霖費用申請              </t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36101</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-5125</v>
       </c>
       <c r="G13" t="n">
-        <v>29695474</v>
+        <v>37540009</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>111607</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000914</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201120</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,38 +847,38 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大里大智	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1751卓新偉費用申請              </t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11336</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-10606</v>
       </c>
       <c r="G14" t="n">
-        <v>29706810</v>
+        <v>37529403</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>111607</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1000943</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201120</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,38 +888,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>樹林日新                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1760胡毓樺費用申請              </t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26620</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-1160</v>
       </c>
       <c r="G15" t="n">
-        <v>29733430</v>
+        <v>37528243</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>111607</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000738</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201120</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -929,38 +929,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>桃園大興                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1780胡毓樺費用申請              </t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6063</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1060</v>
       </c>
       <c r="G16" t="n">
-        <v>29739493</v>
+        <v>37527183</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>111607</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1000941</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201120</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -970,38 +970,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>高雄富民                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1747林雅媛費用申請              </t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>39717</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-2261</v>
       </c>
       <c r="G17" t="n">
-        <v>29779210</v>
+        <v>37524922</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>111607</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1000879</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201120</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,31 +1011,1220 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>竹北嘉興	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>存現                            </t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25439</v>
+        <v>60000</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>29804649</v>
+        <v>37584922</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>111744</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1000938</t>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>退訂                            </t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-500</v>
+      </c>
+      <c r="G19" t="n">
+        <v>37584422</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>111680</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>玉山轉凱基森邦-300萬                  </t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>40584422</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>111501</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>駿慶塑膠股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-51697</v>
+      </c>
+      <c r="G21" t="n">
+        <v>40532725</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>111477</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>100260</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>福汎企業股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-23520</v>
+      </c>
+      <c r="G22" t="n">
+        <v>40509205</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>111367</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>100440</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>一次性廠商(開發票)                              </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-35600</v>
+      </c>
+      <c r="G23" t="n">
+        <v>40473605</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>111673</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>799999</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>一次性廠商(開發票)                              </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-39900</v>
+      </c>
+      <c r="G24" t="n">
+        <v>40433705</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>111372</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>799999</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>楊梅青山                                    </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>19769</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>40453474</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>111688</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1000887</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南崁奉化                                    </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>12953</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>40466427</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>111688</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1000822</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汐止工建	                                   </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>14798</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>40481225</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>111688</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1000777</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>永和永利	                                   </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>29906</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>40511131</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>111688</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1000954</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>神岡豐洲	                                   </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>17708</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>40528839</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>111688</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1000922</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>桃園中正長春	                                 </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>10896</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>40539735</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>111688</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1000925</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大甲中山	                                   </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>43005</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>40582740</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>111688</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1000865</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>梧棲中興	                                   </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>13045</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>40595785</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>111688</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1000898</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>龍井竹坑                                    </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>22093</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>40617878</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>111688</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1000515</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>竹北文興                                    </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>9438</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>40627316</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>111688</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1000903</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新營中正	                                   </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>9953</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>40637269</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>111688</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1000834</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>樹林日新                                    </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>27538</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>40664807</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>111688</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1000738</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>堤諾高雄河堤                                  </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>81074</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>40745881</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>111688</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>4000017</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>板橋三民	                                   </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>27173</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>40773054</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>111741</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1000936</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>竹北六家嘉豐	                                 </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>12826</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>40785880</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>111741</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1000927</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>北市南京松江	                                 </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>40789</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>40826669</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>111741</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1000914</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>板橋江翠	                                   </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>38693</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>40865362</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>111741</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1000795</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金門金城                                    </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>24071</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>40889433</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>111741</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1000191</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>北市延平南                                   </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>57117</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>40946550</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>111741</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1000874</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>土城永寧	                                   </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>10047</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>40956597</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>111741</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1000935</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>宜蘭健康                                    </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>7988</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>40964585</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>111776</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1000727</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>頭份光華	                                   </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>9934</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>40974519</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>111769</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1000940</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>匯:遠通電收(股)公司-ETAG109/12月通行費    </t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-100000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>40874519</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>111582</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
